--- a/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15430E81-9F17-4BF5-8B9A-AF5192CAE13C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,7 +337,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -741,23 +742,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +784,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6100</v>
       </c>
@@ -809,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6101</v>
       </c>
@@ -835,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6102</v>
       </c>
@@ -861,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6103</v>
       </c>
@@ -887,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6104</v>
       </c>
@@ -913,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6105</v>
       </c>
@@ -939,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6106</v>
       </c>
@@ -965,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6107</v>
       </c>
@@ -985,13 +986,13 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6108</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6109</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6110</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6111</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>6112</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>6113</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>6114</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>6115</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>6116</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>6117</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>6118</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>6119</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>6120</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>6121</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6122</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>6123</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>6124</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>6125</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>6126</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>6127</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>6128</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>6129</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>6130</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>6131</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>6132</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>6133</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>6134</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>6135</v>
       </c>
@@ -1720,7 +1721,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15430E81-9F17-4BF5-8B9A-AF5192CAE13C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8D2B3E-62D9-40D4-90B7-5D1D20DC6B9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,7 +746,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>1</v>

--- a/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8D2B3E-62D9-40D4-90B7-5D1D20DC6B9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298EDF8F-2135-49FD-A594-69041E0F6B37}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="100">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,44 @@
   </si>
   <si>
     <t>coolTIme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리 인핸서 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리 인핸서 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_00_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_01_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_02_enhancer</t>
+  </si>
+  <si>
+    <t>에일리 인핸서 02</t>
+  </si>
+  <si>
+    <t>Ailliy_00_ready_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_01_ready_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리 레디 인핸서 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리 레디 인핸서 01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +436,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -413,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,6 +471,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1018,145 +1065,145 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>6109</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>6110</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
+      <c r="B12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>6111</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
+      <c r="B13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>6112</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="B14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>6113</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
+      <c r="B15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>6114</v>
+        <v>6109</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -1165,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1176,13 +1223,13 @@
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>6115</v>
+        <v>6110</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
@@ -1202,13 +1249,13 @@
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>6116</v>
+        <v>6111</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
@@ -1217,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1228,13 +1275,13 @@
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>6117</v>
+        <v>6112</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -1243,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1254,13 +1301,13 @@
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>6118</v>
+        <v>6113</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -1269,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1280,13 +1327,13 @@
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>6119</v>
+        <v>6114</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
@@ -1295,7 +1342,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1306,13 +1353,13 @@
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>6120</v>
+        <v>6115</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
@@ -1321,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1332,13 +1379,13 @@
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>6121</v>
+        <v>6116</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -1347,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1358,13 +1405,13 @@
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>6122</v>
+        <v>6117</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
@@ -1373,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1384,13 +1431,13 @@
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>6123</v>
+        <v>6118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
@@ -1410,13 +1457,13 @@
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>6124</v>
+        <v>6119</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -1425,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1436,13 +1483,13 @@
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>6125</v>
+        <v>6120</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
@@ -1450,8 +1497,8 @@
       <c r="E27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>9</v>
+      <c r="F27" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1462,13 +1509,13 @@
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>6126</v>
+        <v>6121</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -1476,8 +1523,8 @@
       <c r="E28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1488,13 +1535,13 @@
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>6127</v>
+        <v>6122</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
@@ -1503,7 +1550,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1514,13 +1561,13 @@
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>6128</v>
+        <v>6123</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
@@ -1529,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1540,13 +1587,13 @@
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>6129</v>
+        <v>6124</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
@@ -1555,7 +1602,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1566,13 +1613,13 @@
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>6130</v>
+        <v>6125</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
@@ -1580,7 +1627,7 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G32">
@@ -1592,13 +1639,13 @@
     </row>
     <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>6131</v>
+        <v>6126</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
@@ -1606,7 +1653,7 @@
       <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G33">
@@ -1618,13 +1665,13 @@
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>6132</v>
+        <v>6127</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
@@ -1633,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1644,13 +1691,13 @@
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>6133</v>
+        <v>6128</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -1659,7 +1706,7 @@
         <v>8</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1670,13 +1717,13 @@
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>6134</v>
+        <v>6129</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
@@ -1696,27 +1743,157 @@
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
+        <v>6130</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>6131</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>6132</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>6133</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>6134</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>6135</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>1</v>
       </c>
     </row>

--- a/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A694169-7536-4C06-8223-B6CF93E5DFCE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA066E9-D5DB-4348-A6B9-C71D4703B2DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="102">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,14 @@
   </si>
   <si>
     <t>에일리 레디 인핸서 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_salamander_01_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도롱뇽 인핸서 01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1889,6 +1897,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="43" spans="1:8" s="1" customFormat="1">
+      <c r="A43" s="1">
+        <v>6141</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA066E9-D5DB-4348-A6B9-C71D4703B2DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70162871-7545-4FAB-AA89-E32DE05BA722}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="108">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +378,26 @@
   <si>
     <t>도롱뇽 인핸서 01</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Bloom_00_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Bloom_01_enhancer</t>
+  </si>
+  <si>
+    <t>19_Bloom_02_enhancer</t>
+  </si>
+  <si>
+    <t>블룸 인핸서 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블룸 인핸서 01</t>
+  </si>
+  <si>
+    <t>블룸 인핸서 02</t>
   </si>
 </sst>
 </file>
@@ -790,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1923,6 +1943,84 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5">
+        <v>6142</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5">
+        <v>6143</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5">
+        <v>6144</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70162871-7545-4FAB-AA89-E32DE05BA722}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBFD654-EF4A-44E5-AC32-6A9D61093B82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +462,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -477,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +500,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1390,8 +1399,8 @@
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G22">
-        <v>1</v>
+      <c r="G22" s="6">
+        <v>5</v>
       </c>
       <c r="H22">
         <v>1</v>

--- a/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/NPCTubeEnhancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBFD654-EF4A-44E5-AC32-6A9D61093B82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB38E8B3-9357-41B2-9097-927AA4CB665B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="137">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +398,93 @@
   </si>
   <si>
     <t>블룸 인핸서 02</t>
+  </si>
+  <si>
+    <t>18_Pickpock_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Gangster_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Gangster_01_enhancer</t>
+  </si>
+  <si>
+    <t>18_Thrower_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Mechanic_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Mechanic_01_enhancer</t>
+  </si>
+  <si>
+    <t>18_Welder_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Scarlett_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Scarlett_01_enhancer</t>
+  </si>
+  <si>
+    <t>18_Scarlett_02_enhancer</t>
+  </si>
+  <si>
+    <t>18_Dentin_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Dentin_01_enhancer</t>
+  </si>
+  <si>
+    <t>18_Dentin_02_enhancer</t>
+  </si>
+  <si>
+    <t>18_Camek_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Camek_01_enhancer</t>
+  </si>
+  <si>
+    <t>소매치기 인핸서 00</t>
+  </si>
+  <si>
+    <t>불량배 인핸서 00</t>
+  </si>
+  <si>
+    <t>불량배 인핸서 01</t>
+  </si>
+  <si>
+    <t>투척꾼 인핸서 00</t>
+  </si>
+  <si>
+    <t>정비공 인핸서 00</t>
+  </si>
+  <si>
+    <t>정비공 인핸서 01</t>
+  </si>
+  <si>
+    <t>용접공 인핸서 00</t>
+  </si>
+  <si>
+    <t>스칼렛 인핸서 00</t>
+  </si>
+  <si>
+    <t>스칼렛 인핸서 01</t>
+  </si>
+  <si>
+    <t>스칼렛 인핸서 02</t>
+  </si>
+  <si>
+    <t>덴틴 인핸서 00</t>
+  </si>
+  <si>
+    <t>덴틴 인핸서 01</t>
+  </si>
+  <si>
+    <t>덴틴 인핸서 02</t>
+  </si>
+  <si>
+    <t>카멕 인핸서 00</t>
   </si>
 </sst>
 </file>
@@ -443,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +555,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE569C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -483,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,6 +596,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2030,6 +2126,396 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="7">
+        <v>6145</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="7">
+        <v>6146</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="7">
+        <v>6147</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="7">
+        <v>6148</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="7">
+        <v>6149</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="7">
+        <v>6150</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="7">
+        <v>6151</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="7">
+        <v>6152</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="7">
+        <v>6153</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="7">
+        <v>6154</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="7">
+        <v>6155</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="7">
+        <v>6156</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="7">
+        <v>6157</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="7">
+        <v>6158</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="7">
+        <v>6159</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
